--- a/Documents/Prog/My Productivity/Project Managment/Project managment tamblet/working_project_template.xlsx
+++ b/Documents/Prog/My Productivity/Project Managment/Project managment tamblet/working_project_template.xlsx
@@ -10,6 +10,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Project Tasks" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Project Pulse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Impact Matrix" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource Orchestra" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Timeline Rhythm" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Decision Command" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Predictive Insights" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Project Pulse1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Impact Matrix1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource Orchestra1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Timeline Rhythm1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Decision Command1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Predictive Insights1" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62,7 +76,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -99,6 +113,12 @@
         <bgColor rgb="00E74C3C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8C00"/>
+        <bgColor rgb="00FF8C00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -118,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -142,6 +162,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -513,10 +548,12 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
@@ -2610,9 +2647,29 @@
         <color rgb="0000FF00"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="00FF0000"/>
+        <color rgb="00FFFF00"/>
+        <color rgb="0000FF00"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA13">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="00FFA500"/>
+        <color rgb="00FF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="50"/>
@@ -2634,7 +2691,3078 @@
         <color rgb="00FF0000"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="0000FF00"/>
+        <color rgb="00FFFF00"/>
+        <color rgb="00FF0000"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>PROJECT DASHBOARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Total Tasks:</t>
+        </is>
+      </c>
+      <c r="C3" s="17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="inlineStr">
+        <is>
+          <t>Completed:</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="inlineStr">
+        <is>
+          <t>At Risk:</t>
+        </is>
+      </c>
+      <c r="C5" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Total Budget:</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr">
+        <is>
+          <t>$8,465,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>Actual Cost:</t>
+        </is>
+      </c>
+      <c r="C7" s="17" t="inlineStr">
+        <is>
+          <t>$3,589,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="inlineStr">
+        <is>
+          <t>Budget Used:</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>42.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="inlineStr">
+        <is>
+          <t>STATUS SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>WORKING PROJECT MANAGEMENT TEMPLATE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="inlineStr"/>
+      <c r="B2" s="20" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="inlineStr">
+        <is>
+          <t>OVERVIEW</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This template provides a comprehensive project tracking system with calculated impact and risk scores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="inlineStr"/>
+      <c r="B4" s="20" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>KEY FEATURES:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Impact Score</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>Automatically calculated based on duration, dependencies, criticality, and other factors</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>Risk Score</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>Dynamic assessment based on status, progress, and health indicators</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="inlineStr">
+        <is>
+          <t>Health Indicator</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>Visual status using color coding (Green/Yellow/Orange/Red)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="inlineStr">
+        <is>
+          <t>Priority Score</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>Combined impact and risk for prioritization</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="inlineStr"/>
+      <c r="B10" s="20" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="18" t="inlineStr">
+        <is>
+          <t>USING THE TEMPLATE:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="inlineStr">
+        <is>
+          <t>1. Data Entry</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>Enter your project tasks with parent-child relationships</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>2. Update Progress</t>
+        </is>
+      </c>
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>Regularly update % Complete and Status fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="inlineStr">
+        <is>
+          <t>3. Monitor Health</t>
+        </is>
+      </c>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>Watch the Health Indicator and Risk Score columns</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="inlineStr">
+        <is>
+          <t>4. Review Dashboard</t>
+        </is>
+      </c>
+      <c r="B15" s="20" t="inlineStr">
+        <is>
+          <t>Check the Dashboard sheet for KPIs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="inlineStr"/>
+      <c r="B16" s="20" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="inlineStr">
+        <is>
+          <t>FORMULAS:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>Impact Score</t>
+        </is>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>Considers duration, dependencies, criticality, blocking tasks, and budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>Risk Score</t>
+        </is>
+      </c>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>Based on status, progress delays, and health indicators</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>Impact × 0.6 + Risk × 0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="inlineStr"/>
+      <c r="B21" s="20" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="18" t="inlineStr">
+        <is>
+          <t>BEST PRACTICES:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
+          <t>Daily Updates</t>
+        </is>
+      </c>
+      <c r="B23" s="20" t="inlineStr">
+        <is>
+          <t>Update task status and progress daily</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>Risk Review</t>
+        </is>
+      </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>Address high-risk items immediately</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="inlineStr">
+        <is>
+          <t>Dependencies</t>
+        </is>
+      </c>
+      <c r="B25" s="20" t="inlineStr">
+        <is>
+          <t>Keep dependency information current</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Resource Load</t>
+        </is>
+      </c>
+      <c r="B26" s="20" t="inlineStr">
+        <is>
+          <t>Monitor resource utilization levels</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>PROJECT PULSE - HEALTH INDICATORS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>Gap</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Overall Project Health</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>↑ +5%</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Schedule Performance</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>↓ -2%</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Budget Performance</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>94</v>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>→ 0%</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Risk Management</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>↑ +3%</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Team Utilization</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>78</v>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>↑ +5%</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="inlineStr">
+        <is>
+          <t>CRITICAL ALERTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B12" s="22" t="inlineStr">
+        <is>
+          <t>Issue</t>
+        </is>
+      </c>
+      <c r="C12" s="22" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>Action Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DELAY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 tasks delayed</t>
+        </is>
+      </c>
+      <c r="C13" s="23" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Schedule at risk</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8 resources overloaded</t>
+        </is>
+      </c>
+      <c r="C14" s="24" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Capacity planning needed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>IMPACT vs RISK MATRIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="inlineStr">
+        <is>
+          <t>Critical Focus</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B4" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D4" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F4" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G4" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Quick Wins</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B8" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C8" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F8" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G8" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Digital Transformation Initiat</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Program Managem</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Future State Design</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Solution Archit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Infrastructure Ready</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>82</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infrastructure </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phase 1: Discovery &amp; Planning</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>46</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PM Team</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Phase 3: Development Sprint 1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>78</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>46</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dev Team Alpha</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="inlineStr">
+        <is>
+          <t>Risk Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B17" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C17" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D17" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F17" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G17" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
+        <is>
+          <t>Routine</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B21" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C21" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E21" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F21" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G21" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Security Vulnerability Assessm</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>44</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C007</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Security Framework</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>38</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Project Kickoff Complete</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>45</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>All Teams</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Stakeholder Interviews</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>43</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BA Team</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Current State Analysis</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>43</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tech Architects</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>RESOURCE CAPACITY &amp; ALLOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="inlineStr">
+        <is>
+          <t>Resource/Team</t>
+        </is>
+      </c>
+      <c r="B3" s="28" t="inlineStr">
+        <is>
+          <t>Active Tasks</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="inlineStr">
+        <is>
+          <t>Avg Load %</t>
+        </is>
+      </c>
+      <c r="D3" s="28" t="inlineStr">
+        <is>
+          <t>Critical Tasks</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
+        <is>
+          <t>Budget Allocated</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>Budget Used</t>
+        </is>
+      </c>
+      <c r="H3" s="28" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>Program Management</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="inlineStr">
+        <is>
+          <t>$5,000,000</t>
+        </is>
+      </c>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>$1,750,000 (35%)</t>
+        </is>
+      </c>
+      <c r="H4" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="inlineStr">
+        <is>
+          <t>PM Team</t>
+        </is>
+      </c>
+      <c r="B5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29" t="inlineStr">
+        <is>
+          <t>$500,000</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>$485,000 (97%)</t>
+        </is>
+      </c>
+      <c r="H5" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="inlineStr">
+        <is>
+          <t>Tech Architects</t>
+        </is>
+      </c>
+      <c r="B6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29" t="inlineStr">
+        <is>
+          <t>$75,000</t>
+        </is>
+      </c>
+      <c r="G6" s="29" t="inlineStr">
+        <is>
+          <t>$72,000 (96%)</t>
+        </is>
+      </c>
+      <c r="H6" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>Solution Architects</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="inlineStr">
+        <is>
+          <t>$100,000</t>
+        </is>
+      </c>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>$98,000 (98%)</t>
+        </is>
+      </c>
+      <c r="H7" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="inlineStr">
+        <is>
+          <t>$230,000</t>
+        </is>
+      </c>
+      <c r="G8" s="29" t="inlineStr">
+        <is>
+          <t>$152,000 (66%)</t>
+        </is>
+      </c>
+      <c r="H8" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Dev Team Alpha</t>
+        </is>
+      </c>
+      <c r="B9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29" t="inlineStr">
+        <is>
+          <t>$1,000,000</t>
+        </is>
+      </c>
+      <c r="G9" s="29" t="inlineStr">
+        <is>
+          <t>$0 (0%)</t>
+        </is>
+      </c>
+      <c r="H9" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="inlineStr">
+        <is>
+          <t>BA Team</t>
+        </is>
+      </c>
+      <c r="B10" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="D10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
+      </c>
+      <c r="G10" s="29" t="inlineStr">
+        <is>
+          <t>$48,000 (96%)</t>
+        </is>
+      </c>
+      <c r="H10" s="31" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="inlineStr">
+        <is>
+          <t>Infrastructure Team</t>
+        </is>
+      </c>
+      <c r="B11" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29" t="inlineStr">
+        <is>
+          <t>$1,500,000</t>
+        </is>
+      </c>
+      <c r="G11" s="29" t="inlineStr">
+        <is>
+          <t>$975,000 (65%)</t>
+        </is>
+      </c>
+      <c r="H11" s="32" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="inlineStr">
+        <is>
+          <t>Cloud Team</t>
+        </is>
+      </c>
+      <c r="B12" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="G12" s="29" t="inlineStr">
+        <is>
+          <t>$9,500 (95%)</t>
+        </is>
+      </c>
+      <c r="H12" s="32" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="29" t="inlineStr">
+        <is>
+          <t>All Teams</t>
+        </is>
+      </c>
+      <c r="B13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="G13" s="29" t="inlineStr">
+        <is>
+          <t>$0 (0%)</t>
+        </is>
+      </c>
+      <c r="H13" s="32" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>BOTTLENECK ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>Resource</t>
+        </is>
+      </c>
+      <c r="B18" s="22" t="inlineStr">
+        <is>
+          <t>Issue</t>
+        </is>
+      </c>
+      <c r="C18" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D18" s="22" t="inlineStr">
+        <is>
+          <t>Recommendation</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Program Management</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PM Team</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Tech Architects</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Solution Architects</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>TIMELINE &amp; CRITICAL PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="inlineStr">
+        <is>
+          <t>UPCOMING MILESTONES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="inlineStr">
+        <is>
+          <t>Milestone</t>
+        </is>
+      </c>
+      <c r="B5" s="22" t="inlineStr">
+        <is>
+          <t>Target Date</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>Days Until</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>Dependencies</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F5" s="22" t="inlineStr">
+        <is>
+          <t>Impact if Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Infrastructure Ready</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>-501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>High - Blocks multiple tasks</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="inlineStr">
+        <is>
+          <t>CRITICAL PATH TASKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B11" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C11" s="22" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>Progress</t>
+        </is>
+      </c>
+      <c r="F11" s="22" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Digital Transformation Initiative</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Future State Design</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C007</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Security Framework</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Phase 3: Development Sprint 1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Infrastructure Ready</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Security Vulnerability Assessment</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
+        <is>
+          <t>PROJECT VELOCITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Planned Completion</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Actual Completion</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tasks Behind Schedule</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Average Delay (days)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Projected Completion</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>DECISIONS &amp; ACTIONS REQUIRED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B3" s="28" t="inlineStr">
+        <is>
+          <t>Urgency</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D3" s="28" t="inlineStr">
+        <is>
+          <t>Action Required</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
+        <is>
+          <t>Impact if Delayed</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>Due</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B4" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>Digital Transformation Initiative</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E4" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F4" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B5" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C5" s="29" t="inlineStr">
+        <is>
+          <t>Phase 1: Discovery &amp; Planning</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E5" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F5" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B6" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>Current State Analysis</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G6" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B7" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C7" s="29" t="inlineStr">
+        <is>
+          <t>Future State Design</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E7" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F7" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B8" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>Phase 2: Infrastructure Setup</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F8" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G8" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B9" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C9" s="29" t="inlineStr">
+        <is>
+          <t>Security Framework</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F9" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G9" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B10" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C10" s="29" t="inlineStr">
+        <is>
+          <t>Phase 3: Development Sprint 1</t>
+        </is>
+      </c>
+      <c r="D10" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E10" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G10" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B11" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C11" s="29" t="inlineStr">
+        <is>
+          <t>Security Vulnerability Assessment</t>
+        </is>
+      </c>
+      <c r="D11" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E11" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G11" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>QUICK ACTIONS SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="inlineStr">
+        <is>
+          <t>Total Decisions Pending</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>Critical Actions</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>Blockers to Remove</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>Risk Mitigations</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>Resource Issues</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>PREDICTIVE ANALYTICS &amp; RECOMMENDATIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="inlineStr">
+        <is>
+          <t>COMPLETION PREDICTIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B5" s="34" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="C5" s="34" t="inlineStr">
+        <is>
+          <t>Predicted</t>
+        </is>
+      </c>
+      <c r="D5" s="34" t="inlineStr">
+        <is>
+          <t>Confidence</t>
+        </is>
+      </c>
+      <c r="E5" s="34" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="inlineStr">
+        <is>
+          <t>Project Completion Date</t>
+        </is>
+      </c>
+      <c r="B6" s="29" t="inlineStr">
+        <is>
+          <t>Apr 30, 2024</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>May 15, 2024</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>Final Budget</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>$8.5M</t>
+        </is>
+      </c>
+      <c r="C7" s="29" t="inlineStr">
+        <is>
+          <t>$9.0M</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="E7" s="29" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Tasks at Risk</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Resource Capacity</t>
+        </is>
+      </c>
+      <c r="B9" s="29" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="C9" s="29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>EMERGING RISKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="B14" s="22" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C14" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>Timeline</t>
+        </is>
+      </c>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>Recommended Action</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Security Framework Delay</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="C15" s="33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Next 2 weeks</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Add security resources immediately</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Resource Burnout</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C16" s="24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Next month</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Implement resource rotation plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Budget Overrun</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C17" s="24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Q2 2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Review and optimize spending</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
+        <is>
+          <t>OPTIMIZATION OPPORTUNITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="inlineStr">
+        <is>
+          <t>Opportunity</t>
+        </is>
+      </c>
+      <c r="B22" s="22" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C22" s="22" t="inlineStr">
+        <is>
+          <t>Expected Benefit</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Resource Reallocation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Move 2 developers from Phase 2 to Phase 3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15% faster delivery</t>
+        </is>
+      </c>
+      <c r="D23" s="35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Parallel Execution</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Run testing in parallel with development</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10 days saved</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Scope Adjustment</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Defer 2 non-critical features to Phase 2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20% risk reduction</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tool Automation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Implement automated testing for APIs</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>30% effort reduction</t>
+        </is>
+      </c>
+      <c r="D26" s="35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2651,7 +5779,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="3" max="3"/>
@@ -2807,7 +5935,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
@@ -3068,4 +6196,2634 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>PROJECT PULSE - HEALTH INDICATORS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>Gap</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Overall Project Health</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>↑ +5%</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Schedule Performance</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>↓ -2%</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Budget Performance</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>94</v>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>→ 0%</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Risk Management</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>↑ +3%</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Team Utilization</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>78</v>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>↑ +5%</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="inlineStr">
+        <is>
+          <t>CRITICAL ALERTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B12" s="22" t="inlineStr">
+        <is>
+          <t>Issue</t>
+        </is>
+      </c>
+      <c r="C12" s="22" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>Action Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DELAY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 tasks delayed</t>
+        </is>
+      </c>
+      <c r="C13" s="23" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Schedule at risk</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8 resources overloaded</t>
+        </is>
+      </c>
+      <c r="C14" s="24" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Capacity planning needed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>IMPACT vs RISK MATRIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="inlineStr">
+        <is>
+          <t>Critical Focus</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B4" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D4" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F4" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G4" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Quick Wins</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B8" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C8" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F8" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G8" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Digital Transformation Initiat</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Program Managem</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Future State Design</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>51</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Solution Archit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Infrastructure Ready</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>82</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infrastructure </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phase 1: Discovery &amp; Planning</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>46</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PM Team</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Phase 3: Development Sprint 1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>78</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>46</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dev Team Alpha</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="inlineStr">
+        <is>
+          <t>Risk Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B17" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C17" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D17" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F17" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G17" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
+        <is>
+          <t>Routine</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B21" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C21" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="E21" s="22" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="F21" s="22" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="G21" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Security Vulnerability Assessm</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>44</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C007</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Security Framework</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>38</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Project Kickoff Complete</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>45</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>All Teams</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Stakeholder Interviews</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>43</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BA Team</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Current State Analysis</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>43</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tech Architects</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>RESOURCE CAPACITY &amp; ALLOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="inlineStr">
+        <is>
+          <t>Resource/Team</t>
+        </is>
+      </c>
+      <c r="B3" s="28" t="inlineStr">
+        <is>
+          <t>Active Tasks</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="inlineStr">
+        <is>
+          <t>Avg Load %</t>
+        </is>
+      </c>
+      <c r="D3" s="28" t="inlineStr">
+        <is>
+          <t>Critical Tasks</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="inlineStr">
+        <is>
+          <t>Blocked</t>
+        </is>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
+        <is>
+          <t>Budget Allocated</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>Budget Used</t>
+        </is>
+      </c>
+      <c r="H3" s="28" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>Program Management</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="inlineStr">
+        <is>
+          <t>$5,000,000</t>
+        </is>
+      </c>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>$1,750,000 (35%)</t>
+        </is>
+      </c>
+      <c r="H4" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="inlineStr">
+        <is>
+          <t>PM Team</t>
+        </is>
+      </c>
+      <c r="B5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29" t="inlineStr">
+        <is>
+          <t>$500,000</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>$485,000 (97%)</t>
+        </is>
+      </c>
+      <c r="H5" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="inlineStr">
+        <is>
+          <t>Tech Architects</t>
+        </is>
+      </c>
+      <c r="B6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29" t="inlineStr">
+        <is>
+          <t>$75,000</t>
+        </is>
+      </c>
+      <c r="G6" s="29" t="inlineStr">
+        <is>
+          <t>$72,000 (96%)</t>
+        </is>
+      </c>
+      <c r="H6" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>Solution Architects</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="inlineStr">
+        <is>
+          <t>$100,000</t>
+        </is>
+      </c>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>$98,000 (98%)</t>
+        </is>
+      </c>
+      <c r="H7" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="inlineStr">
+        <is>
+          <t>$230,000</t>
+        </is>
+      </c>
+      <c r="G8" s="29" t="inlineStr">
+        <is>
+          <t>$152,000 (66%)</t>
+        </is>
+      </c>
+      <c r="H8" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Dev Team Alpha</t>
+        </is>
+      </c>
+      <c r="B9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29" t="inlineStr">
+        <is>
+          <t>$1,000,000</t>
+        </is>
+      </c>
+      <c r="G9" s="29" t="inlineStr">
+        <is>
+          <t>$0 (0%)</t>
+        </is>
+      </c>
+      <c r="H9" s="30" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="inlineStr">
+        <is>
+          <t>BA Team</t>
+        </is>
+      </c>
+      <c r="B10" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="D10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
+      </c>
+      <c r="G10" s="29" t="inlineStr">
+        <is>
+          <t>$48,000 (96%)</t>
+        </is>
+      </c>
+      <c r="H10" s="31" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="inlineStr">
+        <is>
+          <t>Infrastructure Team</t>
+        </is>
+      </c>
+      <c r="B11" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29" t="inlineStr">
+        <is>
+          <t>$1,500,000</t>
+        </is>
+      </c>
+      <c r="G11" s="29" t="inlineStr">
+        <is>
+          <t>$975,000 (65%)</t>
+        </is>
+      </c>
+      <c r="H11" s="32" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="inlineStr">
+        <is>
+          <t>Cloud Team</t>
+        </is>
+      </c>
+      <c r="B12" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="G12" s="29" t="inlineStr">
+        <is>
+          <t>$9,500 (95%)</t>
+        </is>
+      </c>
+      <c r="H12" s="32" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="29" t="inlineStr">
+        <is>
+          <t>All Teams</t>
+        </is>
+      </c>
+      <c r="B13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="G13" s="29" t="inlineStr">
+        <is>
+          <t>$0 (0%)</t>
+        </is>
+      </c>
+      <c r="H13" s="32" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>BOTTLENECK ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>Resource</t>
+        </is>
+      </c>
+      <c r="B18" s="22" t="inlineStr">
+        <is>
+          <t>Issue</t>
+        </is>
+      </c>
+      <c r="C18" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D18" s="22" t="inlineStr">
+        <is>
+          <t>Recommendation</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Program Management</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PM Team</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Tech Architects</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Solution Architects</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Overloaded</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2 critical tasks affected</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Redistribute load</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>TIMELINE &amp; CRITICAL PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="inlineStr">
+        <is>
+          <t>UPCOMING MILESTONES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="inlineStr">
+        <is>
+          <t>Milestone</t>
+        </is>
+      </c>
+      <c r="B5" s="22" t="inlineStr">
+        <is>
+          <t>Target Date</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>Days Until</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>Dependencies</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F5" s="22" t="inlineStr">
+        <is>
+          <t>Impact if Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Infrastructure Ready</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="C6" s="33" t="n">
+        <v>-501</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>High - Blocks multiple tasks</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="inlineStr">
+        <is>
+          <t>CRITICAL PATH TASKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B11" s="22" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C11" s="22" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>Progress</t>
+        </is>
+      </c>
+      <c r="F11" s="22" t="inlineStr">
+        <is>
+          <t>Float</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Digital Transformation Initiative</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Future State Design</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-01-17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C007</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Security Framework</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-01-24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Phase 3: Development Sprint 1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Infrastructure Ready</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Security Vulnerability Assessment</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
+        <is>
+          <t>PROJECT VELOCITY</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Planned Completion</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Actual Completion</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tasks Behind Schedule</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Average Delay (days)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Projected Completion</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Delayed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>DECISIONS &amp; ACTIONS REQUIRED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B3" s="28" t="inlineStr">
+        <is>
+          <t>Urgency</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D3" s="28" t="inlineStr">
+        <is>
+          <t>Action Required</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
+        <is>
+          <t>Impact if Delayed</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>Due</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B4" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>Digital Transformation Initiative</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E4" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F4" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B5" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C5" s="29" t="inlineStr">
+        <is>
+          <t>Phase 1: Discovery &amp; Planning</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E5" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F5" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B6" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>Current State Analysis</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G6" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B7" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C7" s="29" t="inlineStr">
+        <is>
+          <t>Future State Design</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E7" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F7" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B8" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>Phase 2: Infrastructure Setup</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F8" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G8" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B9" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C9" s="29" t="inlineStr">
+        <is>
+          <t>Security Framework</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F9" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G9" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B10" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C10" s="29" t="inlineStr">
+        <is>
+          <t>Phase 3: Development Sprint 1</t>
+        </is>
+      </c>
+      <c r="D10" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E10" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G10" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="inlineStr">
+        <is>
+          <t>RESOURCE</t>
+        </is>
+      </c>
+      <c r="B11" s="31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C11" s="29" t="inlineStr">
+        <is>
+          <t>Security Vulnerability Assessment</t>
+        </is>
+      </c>
+      <c r="D11" s="29" t="inlineStr">
+        <is>
+          <t>Reallocate resources</t>
+        </is>
+      </c>
+      <c r="E11" s="29" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="inlineStr">
+        <is>
+          <t>Resource burnout risk</t>
+        </is>
+      </c>
+      <c r="G11" s="29" t="inlineStr">
+        <is>
+          <t>Next sprint</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>QUICK ACTIONS SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="inlineStr">
+        <is>
+          <t>Total Decisions Pending</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>Critical Actions</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>Blockers to Remove</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>Risk Mitigations</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>Resource Issues</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>PREDICTIVE ANALYTICS &amp; RECOMMENDATIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="inlineStr">
+        <is>
+          <t>COMPLETION PREDICTIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B5" s="34" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="C5" s="34" t="inlineStr">
+        <is>
+          <t>Predicted</t>
+        </is>
+      </c>
+      <c r="D5" s="34" t="inlineStr">
+        <is>
+          <t>Confidence</t>
+        </is>
+      </c>
+      <c r="E5" s="34" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="inlineStr">
+        <is>
+          <t>Project Completion Date</t>
+        </is>
+      </c>
+      <c r="B6" s="29" t="inlineStr">
+        <is>
+          <t>Apr 30, 2024</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>May 15, 2024</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="inlineStr">
+        <is>
+          <t>Final Budget</t>
+        </is>
+      </c>
+      <c r="B7" s="29" t="inlineStr">
+        <is>
+          <t>$8.5M</t>
+        </is>
+      </c>
+      <c r="C7" s="29" t="inlineStr">
+        <is>
+          <t>$9.0M</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="E7" s="29" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Tasks at Risk</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Resource Capacity</t>
+        </is>
+      </c>
+      <c r="B9" s="29" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="C9" s="29" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>EMERGING RISKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="22" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="B14" s="22" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C14" s="22" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>Timeline</t>
+        </is>
+      </c>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>Recommended Action</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Security Framework Delay</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="C15" s="33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Next 2 weeks</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Add security resources immediately</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Resource Burnout</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C16" s="24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Next month</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Implement resource rotation plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Budget Overrun</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C17" s="24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Q2 2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Review and optimize spending</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
+        <is>
+          <t>OPTIMIZATION OPPORTUNITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="inlineStr">
+        <is>
+          <t>Opportunity</t>
+        </is>
+      </c>
+      <c r="B22" s="22" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C22" s="22" t="inlineStr">
+        <is>
+          <t>Expected Benefit</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Resource Reallocation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Move 2 developers from Phase 2 to Phase 3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15% faster delivery</t>
+        </is>
+      </c>
+      <c r="D23" s="35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Parallel Execution</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Run testing in parallel with development</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10 days saved</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Scope Adjustment</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Defer 2 non-critical features to Phase 2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20% risk reduction</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tool Automation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Implement automated testing for APIs</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>30% effort reduction</t>
+        </is>
+      </c>
+      <c r="D26" s="35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>